--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0169B74-7A91-43AD-AD13-07EFCF191A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFD57A-685A-4311-BE99-5B0162A9F0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（t_user）" sheetId="1" r:id="rId1"/>
@@ -529,11 +529,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +852,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,17 +862,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1052,17 +1052,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1325,30 +1325,30 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1377,17 +1377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1575,17 +1575,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13879-0A74-4F26-BE89-027083681DFB}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1824,17 +1824,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1902,7 +1902,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762A47A9-ACED-4678-AB92-60C4D5C4CC85}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2017,17 +2017,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">

--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AFD57A-685A-4311-BE99-5B0162A9F0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7920102A-9709-44E9-8CF2-1D9442CF9782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（t_user）" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
   <si>
     <t>字段中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,10 @@
   </si>
   <si>
     <t>废用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:此快递已被删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E81489B-C9DD-46A9-A008-491B8C7DFFF2}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,6 +1307,9 @@
         <v>12</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1813,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13879-0A74-4F26-BE89-027083681DFB}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\pack\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7920102A-9709-44E9-8CF2-1D9442CF9782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189B932-029C-47AA-A890-B628E849B556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0: 提交  1: 取件 2: 发出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间戳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,15 +428,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0:已取出   1:未取出    -1::没有取件码但已入站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4:此快递已被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 已提交  1: 已取件 2: 已发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已取出   1:未取出    -1:未有取件码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J12">
         <f>J18</f>
@@ -1301,14 +1301,14 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1356,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1530,7 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1548,7 +1548,7 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1777,13 +1777,13 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1791,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1895,7 +1895,7 @@
         <v>2120172171</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1935,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2025,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2085,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2108,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\pack\src\main\resources\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189B932-029C-47AA-A890-B628E849B556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8FBF0-06B8-41B0-952A-E93CD770FCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（t_user）" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
     <t>字段中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,14 @@
   </si>
   <si>
     <t>0:已取出   1:未取出    -1:未有取件码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E81489B-C9DD-46A9-A008-491B8C7DFFF2}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2012,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762A47A9-ACED-4678-AB92-60C4D5C4CC85}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,6 +2142,23 @@
         <v>94</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" s="1"/>
     </row>

--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\pack\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B8FBF0-06B8-41B0-952A-E93CD770FCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C23126-BD37-478A-8A50-7A3054B0F8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表（t_user）" sheetId="1" r:id="rId1"/>
     <sheet name="快递表（t_pack）" sheetId="2" r:id="rId2"/>
-    <sheet name="消息表（t_msg）" sheetId="3" r:id="rId3"/>
-    <sheet name="寄件表（t_send）" sheetId="4" r:id="rId4"/>
-    <sheet name="管理人员表（t_admin）" sheetId="5" r:id="rId5"/>
-    <sheet name="取件码表（t_code）" sheetId="6" r:id="rId6"/>
+    <sheet name="寄件表（t_send）" sheetId="4" r:id="rId3"/>
+    <sheet name="管理人员表（t_admin）" sheetId="5" r:id="rId4"/>
+    <sheet name="取件码表（t_code）" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>字段中文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,62 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息表（t_msg）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发信人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收信人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寄件表（t_send）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,6 +392,18 @@
   </si>
   <si>
     <t>free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1246,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J12">
         <f>J18</f>
@@ -1309,14 +1264,14 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1330,7 +1285,7 @@
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1364,7 +1319,7 @@
         <v>55</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1378,11 +1333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A59AFD7-0BBE-4803-99BD-546F40B326A9}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3C944-8E53-44C7-9A8F-E0E007BEF673}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1438,22 +1393,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1461,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1478,13 +1427,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1495,13 +1444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1512,19 +1461,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1532,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1550,19 +1496,97 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1576,255 +1600,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3C944-8E53-44C7-9A8F-E0E007BEF673}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E13879-0A74-4F26-BE89-027083681DFB}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1885,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1903,7 +1678,7 @@
         <v>2120172171</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1923,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1943,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1971,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2016,11 +1791,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762A47A9-ACED-4678-AB92-60C4D5C4CC85}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2033,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2093,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2101,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2116,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2124,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -2139,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2147,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>

--- a/src/main/resources/file/表结构.xlsx
+++ b/src/main/resources/file/表结构.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\pack\src\main\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C23126-BD37-478A-8A50-7A3054B0F8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A622E3-F65A-4AC4-AE2F-8DCF1A4C15A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BD37262B-8E07-4799-9BEF-65AF301BF27F}"/>
   </bookViews>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1520,7 +1520,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
